--- a/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="21094" windowHeight="9925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -27,6 +27,9 @@
     <t>FiringStand</t>
   </si>
   <si>
+    <t>ShowSubline</t>
+  </si>
+  <si>
     <t>LockingTime</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
   </si>
   <si>
     <t>开火时是否站立不动</t>
+  </si>
+  <si>
+    <t>是否显示射击辅助线</t>
   </si>
   <si>
     <t>Ai属性
@@ -69,6 +75,9 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>FALSE</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -78,7 +87,16 @@
     <t>0004</t>
   </si>
   <si>
+    <t>移动射击</t>
+  </si>
+  <si>
     <t>0005</t>
+  </si>
+  <si>
+    <t>使用远距离武器</t>
+  </si>
+  <si>
+    <t>0006</t>
   </si>
 </sst>
 </file>
@@ -694,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,6 +724,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1018,28 +1039,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="26.8181818181818" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="39.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="61.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="13.1261261261261" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8198198198198" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.2162162162162" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.8198198198198" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.2342342342342" customWidth="1"/>
+    <col min="6" max="6" width="26.9459459459459" customWidth="1"/>
+    <col min="7" max="7" width="35.4414414414414" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="14.15" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1051,131 +1075,181 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="42" spans="1:6">
+    <row r="2" ht="62" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="14.15" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" ht="46" customHeight="1" spans="1:6">
+    <row r="4" ht="46" customHeight="1" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.5</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.35</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="37" customHeight="1" spans="1:6">
+    <row r="5" ht="37" customHeight="1" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.35</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:6">
+    <row r="6" ht="35" customHeight="1" spans="1:7">
       <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>0.35</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="40" customHeight="1" spans="1:6">
+    <row r="7" ht="40" customHeight="1" spans="1:7">
       <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>0.35</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="40" customHeight="1" spans="1:6">
+    <row r="8" ht="40" customHeight="1" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
         <v>1.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>0.35</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="43" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1195,7 +1269,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1212,7 +1286,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21094" windowHeight="9925"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>LockingTime</t>
+  </si>
+  <si>
+    <t>LockAngleTime</t>
+  </si>
+  <si>
+    <t>AttackLockAngle</t>
   </si>
   <si>
     <t>BulletSpeedScale</t>
@@ -50,6 +56,15 @@
   <si>
     <t>Ai属性
 目标锁定时间, 也就是瞄准目标多久才会开火, (单位: 秒)</t>
+  </si>
+  <si>
+    <t>从锁定目标到开火前有多少时间不能够改变枪口角度
+这个值必须小于LockingTime
+如果为0, 则不会锁定开火角度
+(单位: 秒)</t>
+  </si>
+  <si>
+    <t>开火时是否锁定枪口角度</t>
   </si>
   <si>
     <t>Ai属性
@@ -1039,24 +1054,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1261261261261" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8198198198198" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.2162162162162" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.8198198198198" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.2342342342342" customWidth="1"/>
-    <col min="6" max="6" width="26.9459459459459" customWidth="1"/>
-    <col min="7" max="7" width="35.4414414414414" customWidth="1"/>
+    <col min="1" max="1" width="13.1272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8181818181818" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.2181818181818" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.8181818181818" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22.2363636363636" customWidth="1"/>
+    <col min="8" max="8" width="26.9454545454545" customWidth="1"/>
+    <col min="9" max="9" width="35.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.15" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,178 +1093,232 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="62" customHeight="1" spans="1:7">
+    <row r="2" ht="90" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" ht="14.15" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" ht="46" customHeight="1" spans="1:7">
+    <row r="4" ht="46" customHeight="1" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="37" customHeight="1" spans="1:7">
+    <row r="5" ht="37" customHeight="1" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>0.35</v>
       </c>
-      <c r="G5" s="2">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:7">
+    <row r="6" ht="35" customHeight="1" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>0.35</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="40" customHeight="1" spans="1:7">
+    <row r="7" ht="40" customHeight="1" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
         <v>0.7</v>
       </c>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
         <v>0.35</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="40" customHeight="1" spans="1:7">
+    <row r="8" ht="40" customHeight="1" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>1.5</v>
       </c>
       <c r="F8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="43" customHeight="1" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>0.35</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="43" customHeight="1" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1269,7 +1338,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1286,7 +1355,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>激光武器</t>
   </si>
 </sst>
 </file>
@@ -1054,21 +1060,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.1272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.8181818181818" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.2181818181818" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.8181818181818" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22.2363636363636" customWidth="1"/>
-    <col min="8" max="8" width="26.9454545454545" customWidth="1"/>
-    <col min="9" max="9" width="35.4454545454545" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.8166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.2166666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.8166666666667" style="2" customWidth="1"/>
+    <col min="5" max="7" width="22.2333333333333" customWidth="1"/>
+    <col min="8" max="8" width="26.9416666666667" customWidth="1"/>
+    <col min="9" max="9" width="35.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1319,6 +1325,35 @@
         <v>0.35</v>
       </c>
       <c r="I9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1338,7 +1373,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1355,7 +1390,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>激光武器</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>榴弹炮</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1072,9 +1078,9 @@
     <col min="2" max="2" width="26.8166666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.2166666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.8166666666667" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22.2333333333333" customWidth="1"/>
-    <col min="8" max="8" width="26.9416666666667" customWidth="1"/>
-    <col min="9" max="9" width="35.4416666666667" customWidth="1"/>
+    <col min="5" max="7" width="22.2333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.9416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.4416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1354,6 +1360,35 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="I11" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="F11:I11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
         <v>1.5</v>
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>

--- a/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12180"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Remark</t>
   </si>
   <si>
+    <t>LockingStand</t>
+  </si>
+  <si>
     <t>FiringStand</t>
   </si>
   <si>
@@ -46,6 +49,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>锁定目标时是否站立不动</t>
   </si>
   <si>
     <t>开火时是否站立不动</t>
@@ -1066,24 +1072,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.8166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.2166666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.8166666666667" style="2" customWidth="1"/>
-    <col min="5" max="7" width="22.2333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.9416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.8166666666667" style="2" customWidth="1"/>
+    <col min="6" max="8" width="22.2333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="26.9416666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.4416666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="19" customHeight="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1111,284 +1118,317 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="90" customHeight="1" spans="1:9">
+    <row r="2" ht="90" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="19" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" ht="46" customHeight="1" spans="1:9">
+    <row r="4" ht="46" customHeight="1" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.4</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="37" customHeight="1" spans="1:9">
+    <row r="5" ht="37" customHeight="1" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>0.35</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:9">
+    <row r="6" ht="35" customHeight="1" spans="1:10">
       <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.35</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="40" customHeight="1" spans="1:9">
+    <row r="7" ht="40" customHeight="1" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.7</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="b">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>0.35</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="40" customHeight="1" spans="1:9">
+    <row r="8" ht="40" customHeight="1" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
         <v>1.5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>0.5</v>
       </c>
-      <c r="G8" s="2" t="b">
+      <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>0.5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="43" customHeight="1" spans="1:9">
+    <row r="9" ht="43" customHeight="1" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.5</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>0.5</v>
       </c>
-      <c r="G9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>0.35</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:9">
+    <row r="10" s="1" customFormat="1" ht="45" customHeight="1" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="b">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>1.5</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>0.5</v>
       </c>
-      <c r="G10" s="1" t="b">
+      <c r="H10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="36" customHeight="1" spans="1:9">
+    <row r="11" ht="36" customHeight="1" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="b">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>1.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>0.5</v>
       </c>
-      <c r="G11" s="1" t="b">
+      <c r="H11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>0.8</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/AiAttackAttr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="24750" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
